--- a/小说/风水鬼师.xlsx
+++ b/小说/风水鬼师.xlsx
@@ -14,16 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>杨二爷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨太爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李半仙（师傅）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,15 +48,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵大儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨笑天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杨子城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵太爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵一平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨大先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵庭儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小文（无限天眼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木子(天书下半部)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,63 +430,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L20:Q23"/>
+  <dimension ref="L20:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
     <col min="14" max="14" width="12.75" customWidth="1"/>
     <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="12:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="12:20" x14ac:dyDescent="0.15">
       <c r="M20" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="21" spans="12:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="12:20" x14ac:dyDescent="0.15">
       <c r="M21" t="s">
         <v>0</v>
       </c>
       <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
         <v>2</v>
       </c>
-      <c r="O21" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>9</v>
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="22" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L22" t="s">
+    <row r="23" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L23" t="s">
         <v>5</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="s">
         <v>11</v>
       </c>
-      <c r="O22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="12:17" x14ac:dyDescent="0.15">
-      <c r="L23" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" t="s">
-        <v>7</v>
+      <c r="R23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
